--- a/pslab/misc/pia.xlsx
+++ b/pslab/misc/pia.xlsx
@@ -1,59 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samsal/code/sci7/pslab/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF6072-4575-D145-99EE-7339A714C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8C424-2ABB-EE46-AA68-8C851FDFBD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="500" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{943B2E37-88DD-A44F-A64B-AB8A8757E4DB}"/>
+    <workbookView xWindow="580" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{943B2E37-88DD-A44F-A64B-AB8A8757E4DB}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS ELV" sheetId="1" r:id="rId1"/>
     <sheet name="R=1.5 Rmin" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'DATOS ELV'!$J$3:$J$103</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'DATOS ELV'!$L$3:$L$103</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'DATOS ELV'!#REF!</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'DATOS ELV'!#REF!</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'DATOS ELV'!$J$3:$J$103</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'DATOS ELV'!$K$3:$K$103</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'DATOS ELV'!$J$3:$J$103</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'DATOS ELV'!$L$3:$L$103</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'DATOS ELV'!$M$3:$M$103</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'R=1.5 Rmin'!$C$5:$C$7</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'R=1.5 Rmin'!$D$5:$D$7</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'R=1.5 Rmin'!$M$4:$M$43</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'DATOS ELV'!$M$3:$M$103</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'R=1.5 Rmin'!$N$4:$N$43</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'DATOS ELV'!$J$3:$J$103</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'DATOS ELV'!$L$3:$L$103</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'DATOS ELV'!$M$3:$M$103</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'R=1.5 Rmin'!$C$5:$C$7</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'R=1.5 Rmin'!$D$5:$D$7</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'R=1.5 Rmin'!$M$4:$M$43</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'R=1.5 Rmin'!$N$4:$N$43</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'DATOS ELV'!$J$3:$J$103</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'DATOS ELV'!$L$3:$L$103</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'DATOS ELV'!$P$4:$P$5</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'DATOS ELV'!$M$3:$M$103</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'R=1.5 Rmin'!$C$5:$C$7</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'R=1.5 Rmin'!$D$5:$D$7</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'R=1.5 Rmin'!$M$4:$M$43</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'R=1.5 Rmin'!$N$4:$N$43</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'DATOS ELV'!$Q$4:$Q$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'DATOS ELV'!$J$3:$J$103</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'DATOS ELV'!$L$3:$L$103</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'DATOS ELV'!$M$3:$M$103</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'DATOS ELV'!$P$4:$P$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'DATOS ELV'!$Q$4:$Q$5</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -296,23 +259,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9135,7 +9098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB49311E-927F-3944-B8E9-5804F5B4826A}">
   <dimension ref="A2:X103"/>
   <sheetViews>
-    <sheetView topLeftCell="C59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
@@ -9166,17 +9129,17 @@
       <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="W2" s="11" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="W2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="11"/>
+      <c r="X2" s="13"/>
     </row>
     <row r="3" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -9200,18 +9163,18 @@
       <c r="M3">
         <v>17059.662503866261</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
       <c r="W3" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9240,25 +9203,25 @@
       <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="9">
         <f>B12</f>
         <v>0.45</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="9">
         <f>M48</f>
         <v>6856.2504828519368</v>
       </c>
       <c r="R4" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="9">
         <f>(Q5 - Q4) / (P5 - P4)</f>
         <v>12058.618242413788</v>
       </c>
       <c r="W4">
         <v>0.45</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="9">
         <v>0.92500000000000004</v>
       </c>
     </row>
@@ -9287,10 +9250,10 @@
       <c r="O5" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="9">
         <v>0.92500000000000004</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="9">
         <f>L95 + (L96 - L95) / (J96 - J95) * (P5 - J94)</f>
         <v>12584.094147998487</v>
       </c>
@@ -9335,8 +9298,8 @@
         <f>S4 * H8 + S5</f>
         <v>12885.55960405883</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -9446,11 +9409,11 @@
       <c r="M10">
         <v>9572.2546421057905</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -9478,7 +9441,7 @@
       <c r="M11">
         <v>9140.0309051105305</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9491,9 +9454,9 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="2"/>
       <c r="I12" s="4"/>
       <c r="J12">
@@ -9529,9 +9492,9 @@
         <v>11</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="2"/>
       <c r="I13" s="4"/>
       <c r="J13">
@@ -9559,15 +9522,15 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="2"/>
       <c r="I14" s="4"/>
       <c r="J14">
@@ -9599,9 +9562,9 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="2"/>
       <c r="I15" s="4"/>
       <c r="J15">
@@ -9907,15 +9870,15 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
       <c r="J28">
         <v>0.25000000000000006</v>
       </c>
@@ -10981,14 +10944,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10999,7 +10962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2C74CD-C62A-CE4E-B3CB-4C54FCF88E43}">
   <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -11013,14 +10976,14 @@
         <f>1.5 * 'DATOS ELV'!P15</f>
         <v>6.6610785724322399E-2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="M2" s="11" t="s">
+      <c r="H2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
@@ -11037,12 +11000,12 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="G4">
         <v>0.39</v>
       </c>
